--- a/example/export.xlsx
+++ b/example/export.xlsx
@@ -143,7 +143,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="tmpaoshugb6.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="tmpu32oqakw.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
